--- a/仕様書/仕様書.xlsx
+++ b/仕様書/仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12555" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="フローチャート" sheetId="1" r:id="rId1"/>
@@ -1205,7 +1205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>セレクト</t>
     <phoneticPr fontId="1"/>
@@ -1249,18 +1249,6 @@
   </si>
   <si>
     <t>ポーズ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>２P</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>３P</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>４P</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1800,6 +1788,113 @@
   </si>
   <si>
     <t>InfiniteData</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦闘画面</t>
+    <rPh sb="0" eb="2">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ３</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・・・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ジャンプ
+十字↑
+or
+ボタン
+</t>
+    <rPh sb="5" eb="7">
+      <t>ジュウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムを
+持ってる時と
+持ってないとき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムを拾う
+アイテムを投げる</t>
+    <rPh sb="5" eb="6">
+      <t>ヒロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走る
+近距離攻撃ーブレンド
+遠距離攻撃ーブレンド
+ジャンプ
+やられる</t>
+    <rPh sb="0" eb="1">
+      <t>ハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーション番号</t>
+    <rPh sb="5" eb="7">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーションは上半身・下半身でのブレンドを前提に作る
+・全キャラ共通モーション　※フレームも番号も統一
+0.待機
+1.走る
+2.ジャンプ
+3.ジャンプからの着地
+4.弱やられ→次のモーションが待機でも違和感なく
+5.吹き飛ぶ
+6.寝ころぶ
+7.アイテムを拾う
+8.アイテムを持った状態
+9.アイテムを投げる
+10.近距離攻撃
+11.遠距離攻撃
+12.バースト発動
+13.剣を振る(棒系のアイテム)
+14.銃を撃つ(銃系のアイテム)
+・キャラ独自のモーション　フレームもバラバラでおｋ
+15.キャラ独自の技（□ボタン）
+16.必殺技に必要なモーション
+不確定要素
+必殺技に必要なモーションなど・・
+必殺技に必要なモーションなど・・
+キャラごとの勝利ぽーず
+キャラごとの拍手</t>
+    <rPh sb="277" eb="280">
+      <t>フカクテイ</t>
+    </rPh>
+    <rPh sb="280" eb="282">
+      <t>ヨウソ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1968,7 +2063,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -2106,13 +2201,110 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2173,9 +2365,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2191,6 +2380,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2205,6 +2397,42 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3172,6 +3400,101 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="38100">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28579</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>352426</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線コネクタ 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5619754" y="6610351"/>
+          <a:ext cx="6829421" cy="676274"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9020175" y="8715375"/>
+          <a:ext cx="3438525" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
           <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
@@ -3721,6 +4044,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11315700" y="647700"/>
+          <a:ext cx="10058400" cy="7543800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3728,16 +4095,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>323850</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>323850</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3746,7 +4113,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8020050" y="323850"/>
+          <a:off x="266700" y="571500"/>
           <a:ext cx="1390650" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3775,16 +4142,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3793,7 +4160,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5905500" y="276225"/>
+          <a:off x="266700" y="971550"/>
           <a:ext cx="1381125" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3825,16 +4192,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>352425</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>352425</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3843,7 +4210,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5800725" y="733425"/>
+          <a:off x="266700" y="1323975"/>
           <a:ext cx="1381125" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4563,10 +4930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:H15"/>
+  <dimension ref="D1:I15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.5" defaultRowHeight="54.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4575,20 +4942,20 @@
     <col min="2" max="16384" width="22.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:8" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="4:8" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="4:9" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="4:9" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="4:8" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="4:8" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="4:9" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="4:9" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="4:8" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="4:8" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="4:9" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="4:9" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D6" s="19"/>
       <c r="F6" s="4" t="s">
         <v>1</v>
@@ -4597,39 +4964,42 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="4:8" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:9" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D7" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="8" spans="4:8" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:9" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="F8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="9" spans="4:8" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="4:8" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:9" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="4:9" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D10" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="11" spans="4:8" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="4:8" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:9" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="4:9" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D12" s="4" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>9</v>
+        <v>61</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="13" spans="4:8" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="4:8" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:9" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="4:9" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D14" s="6" t="s">
         <v>5</v>
       </c>
@@ -4637,7 +5007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="4:8" ht="54.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="4:9" ht="54.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4650,8 +5020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24" defaultRowHeight="75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4671,20 +5041,20 @@
     <row r="1" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:8" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -4692,66 +5062,68 @@
     </row>
     <row r="6" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C6" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E7" s="27"/>
     </row>
     <row r="8" spans="2:8" ht="75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C8" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E8" s="28"/>
     </row>
     <row r="9" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C9" s="14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="2:8" ht="75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13"/>
       <c r="C11" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13"/>
       <c r="C12" s="18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="20"/>
+      <c r="C13" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="H13" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -4771,10 +5143,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L7"/>
+  <dimension ref="B1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="71.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4788,55 +5160,109 @@
     <col min="8" max="8" width="6.25" style="1" customWidth="1"/>
     <col min="9" max="10" width="21.625" style="1"/>
     <col min="11" max="11" width="6.25" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="21.625" style="1"/>
+    <col min="12" max="12" width="21.625" style="1"/>
+    <col min="13" max="13" width="6.25" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="21.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:12" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="113.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>42</v>
+        <v>32</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>58</v>
+        <v>37</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="2:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="F6" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="41"/>
+      <c r="H6" s="36"/>
+    </row>
+    <row r="7" spans="2:12" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="37"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="38"/>
+    </row>
+    <row r="8" spans="2:12" ht="71.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="F8" s="37"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="38"/>
+    </row>
+    <row r="9" spans="2:12" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F9" s="37"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="38"/>
+    </row>
+    <row r="10" spans="2:12" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F10" s="37"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="38"/>
+    </row>
+    <row r="11" spans="2:12" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F11" s="39"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="40"/>
+    </row>
+    <row r="12" spans="2:12" ht="71.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:H11"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4845,10 +5271,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F16"/>
+  <dimension ref="B2:L16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4856,17 +5282,20 @@
     <col min="1" max="16384" width="13.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -4881,7 +5310,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4891,60 +5320,60 @@
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:16" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="24"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:16" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="F7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="N7" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
